--- a/Code/Results/Cases/Case_1_253/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_253/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.483533629578972</v>
+        <v>1.627703740713571</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3133493002227254</v>
+        <v>0.1279418244843811</v>
       </c>
       <c r="E2">
-        <v>3.865440670216202</v>
+        <v>1.049007991950532</v>
       </c>
       <c r="F2">
-        <v>6.913431800469795</v>
+        <v>2.851904209353165</v>
       </c>
       <c r="G2">
-        <v>0.0006595629202042941</v>
+        <v>0.002436819216202656</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1180604551681022</v>
+        <v>0.8100945568519404</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.821674521316027</v>
+        <v>0.9828555794891258</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.003257219414024</v>
+        <v>1.502000301002283</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2594644606389238</v>
+        <v>0.1210811433409731</v>
       </c>
       <c r="E3">
-        <v>3.280500619470843</v>
+        <v>0.9137212164588675</v>
       </c>
       <c r="F3">
-        <v>5.788121985420901</v>
+        <v>2.677280718396645</v>
       </c>
       <c r="G3">
-        <v>0.0006832309107933643</v>
+        <v>0.002448753308349282</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1619293071237813</v>
+        <v>0.8388043192501051</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.399317927725292</v>
+        <v>0.8865792465441871</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.715294831639085</v>
+        <v>1.425224270507726</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2295476636787868</v>
+        <v>0.1170715228459045</v>
       </c>
       <c r="E4">
-        <v>2.938850244638928</v>
+        <v>0.830645632023419</v>
       </c>
       <c r="F4">
-        <v>5.150656331231829</v>
+        <v>2.573502035141217</v>
       </c>
       <c r="G4">
-        <v>0.0006976113616673907</v>
+        <v>0.002456434227656734</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1924563946141777</v>
+        <v>0.8574469461567213</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.150928698080577</v>
+        <v>0.8279107672790644</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.59932019975065</v>
+        <v>1.394038266786822</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2179875650486736</v>
+        <v>0.1154869157118981</v>
       </c>
       <c r="E5">
-        <v>2.802987194283816</v>
+        <v>0.7967821351280406</v>
       </c>
       <c r="F5">
-        <v>4.901541541310877</v>
+        <v>2.532049272878936</v>
       </c>
       <c r="G5">
-        <v>0.0007034625504061589</v>
+        <v>0.002459653617842334</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2056931935643735</v>
+        <v>0.8652976201404297</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.051865360801486</v>
+        <v>0.804110248128552</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.580136255858463</v>
+        <v>1.388865909464585</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2161020674986389</v>
+        <v>0.1152267251940629</v>
       </c>
       <c r="E6">
-        <v>2.780604840124084</v>
+        <v>0.7911583445752797</v>
       </c>
       <c r="F6">
-        <v>4.860750968918097</v>
+        <v>2.525215892337172</v>
       </c>
       <c r="G6">
-        <v>0.0007044343158271816</v>
+        <v>0.002460193606535347</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2079365822840371</v>
+        <v>0.8666164950110113</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.035531504126141</v>
+        <v>0.8001645406273781</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.713725631604461</v>
+        <v>1.424803278478805</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2293893932481694</v>
+        <v>0.1170499546568635</v>
       </c>
       <c r="E7">
-        <v>2.937005515775894</v>
+        <v>0.8301889850440887</v>
       </c>
       <c r="F7">
-        <v>5.147256723583979</v>
+        <v>2.572939631767554</v>
       </c>
       <c r="G7">
-        <v>0.0006976902756654492</v>
+        <v>0.002456477283086463</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1926318089907104</v>
+        <v>0.85755179802565</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.149584643635563</v>
+        <v>0.8275893565240438</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.316245019348628</v>
+        <v>1.584275962571951</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2939977315051152</v>
+        <v>0.1255331414052421</v>
       </c>
       <c r="E8">
-        <v>3.659398999069992</v>
+        <v>1.002358481034975</v>
       </c>
       <c r="F8">
-        <v>6.512402304885114</v>
+        <v>2.790963191602515</v>
       </c>
       <c r="G8">
-        <v>0.0006677752915837772</v>
+        <v>0.002440861061126398</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1323691486241003</v>
+        <v>0.8197821673752967</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.673368365709962</v>
+        <v>0.949564126541901</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.57594918331074</v>
+        <v>1.90030962925249</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4567691901353612</v>
+        <v>0.1438557688730526</v>
       </c>
       <c r="E9">
-        <v>5.284278730400018</v>
+        <v>1.340266070135186</v>
       </c>
       <c r="F9">
-        <v>9.796568824948565</v>
+        <v>3.247089622837478</v>
       </c>
       <c r="G9">
-        <v>0.0006059895286147269</v>
+        <v>0.002413018072622909</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.04927691336475881</v>
+        <v>0.7538349340809614</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.825652914366231</v>
+        <v>1.192521911556071</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.601464639861433</v>
+        <v>2.134666396050761</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6249381902088373</v>
+        <v>0.1584567956451792</v>
       </c>
       <c r="E10">
-        <v>6.775750597573222</v>
+        <v>1.589231442490103</v>
       </c>
       <c r="F10">
-        <v>13.01881948071755</v>
+        <v>3.601478933168721</v>
       </c>
       <c r="G10">
-        <v>0.0005540608892204716</v>
+        <v>0.002394223940575129</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.02431481713979444</v>
+        <v>0.7104261972580037</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.838915356586199</v>
+        <v>1.37366559431797</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.11510966464698</v>
+        <v>2.241788925065975</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.7261016555518438</v>
+        <v>0.1653715399536964</v>
       </c>
       <c r="E11">
-        <v>7.610514745521272</v>
+        <v>1.702768003713715</v>
       </c>
       <c r="F11">
-        <v>14.88989205016213</v>
+        <v>3.767302172884797</v>
       </c>
       <c r="G11">
-        <v>0.0005265824305530618</v>
+        <v>0.002386027703980198</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.02782975907057761</v>
+        <v>0.6917941869336053</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.382213656995134</v>
+        <v>1.456726261016058</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.321442922794517</v>
+        <v>2.282429864075141</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.7709518203166965</v>
+        <v>0.1680312800319257</v>
       </c>
       <c r="E12">
-        <v>7.968670482001045</v>
+        <v>1.745811843398258</v>
       </c>
       <c r="F12">
-        <v>15.70477062561594</v>
+        <v>3.8307928703789</v>
       </c>
       <c r="G12">
-        <v>0.0005151089442319409</v>
+        <v>0.002382974229842121</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.03268214978242945</v>
+        <v>0.6849008769120006</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.609305703069992</v>
+        <v>1.488280196668484</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.276332261343327</v>
+        <v>2.273673694098648</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.7609115402478324</v>
+        <v>0.167456588000789</v>
       </c>
       <c r="E13">
-        <v>7.889075075580365</v>
+        <v>1.736539200627902</v>
       </c>
       <c r="F13">
-        <v>15.52310768502332</v>
+        <v>3.817087455740705</v>
       </c>
       <c r="G13">
-        <v>0.0005176428465854</v>
+        <v>0.002383629623411938</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03144051246533408</v>
+        <v>0.6863782283812094</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.559165730613017</v>
+        <v>1.48147991483836</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.131798118831796</v>
+        <v>2.245130943514368</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.7296300866718752</v>
+        <v>0.1655895190452554</v>
       </c>
       <c r="E14">
-        <v>7.638939142077277</v>
+        <v>1.706308187470739</v>
       </c>
       <c r="F14">
-        <v>14.95431800042508</v>
+        <v>3.772511421430465</v>
       </c>
       <c r="G14">
-        <v>0.0005256650843399104</v>
+        <v>0.002385775488753949</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.02814488296177764</v>
+        <v>0.6912238077329027</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.400373627536453</v>
+        <v>1.459320168879856</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.045049525832724</v>
+        <v>2.227657647724754</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.7114687374703976</v>
+        <v>0.1644513233167686</v>
       </c>
       <c r="E15">
-        <v>7.492165767514081</v>
+        <v>1.687797624088802</v>
       </c>
       <c r="F15">
-        <v>14.62212089226011</v>
+        <v>3.745299121090198</v>
       </c>
       <c r="G15">
-        <v>0.0005304146331770218</v>
+        <v>0.002387096422454382</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.02665081916150847</v>
+        <v>0.6942130495798438</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.306353225403768</v>
+        <v>1.445759979979414</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.569172797171973</v>
+        <v>2.127676188747103</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6190137307988266</v>
+        <v>0.1580105628023034</v>
       </c>
       <c r="E16">
-        <v>6.725584616129652</v>
+        <v>1.581818026203479</v>
       </c>
       <c r="F16">
-        <v>12.90776667907824</v>
+        <v>3.590737648826519</v>
       </c>
       <c r="G16">
-        <v>0.0005557463433854201</v>
+        <v>0.002394766647112012</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.02447449069038221</v>
+        <v>0.7116664389386953</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.805677637227745</v>
+        <v>1.368251131946465</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.291640389365739</v>
+        <v>2.066473612632137</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5699512562933364</v>
+        <v>0.1541306512948779</v>
       </c>
       <c r="E17">
-        <v>6.304064816859523</v>
+        <v>1.516881636278981</v>
       </c>
       <c r="F17">
-        <v>11.98150248998724</v>
+        <v>3.497123811948228</v>
       </c>
       <c r="G17">
-        <v>0.0005700685839090035</v>
+        <v>0.002399562188699896</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.0275910833603259</v>
+        <v>0.7226604119843412</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.523940340523211</v>
+        <v>1.320874636389192</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.136024581944753</v>
+        <v>2.031319597581728</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5438001298983295</v>
+        <v>0.1519245656822648</v>
       </c>
       <c r="E18">
-        <v>6.074672710268914</v>
+        <v>1.479557787579211</v>
       </c>
       <c r="F18">
-        <v>11.48282866474813</v>
+        <v>3.443711391791339</v>
       </c>
       <c r="G18">
-        <v>0.000577986780657902</v>
+        <v>0.002402353745505787</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.03066769121227964</v>
+        <v>0.7290886710821436</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.368843671942102</v>
+        <v>1.293686434685981</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.083936008203182</v>
+        <v>2.019425245110881</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.535250414327237</v>
+        <v>0.1511819470414082</v>
       </c>
       <c r="E19">
-        <v>5.998917165130479</v>
+        <v>1.466924727014657</v>
       </c>
       <c r="F19">
-        <v>11.31902094101903</v>
+        <v>3.42570000077049</v>
       </c>
       <c r="G19">
-        <v>0.0005806215782435311</v>
+        <v>0.002403304652365929</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.03190528287881378</v>
+        <v>0.7312831139950546</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.317360469252321</v>
+        <v>1.284491358169987</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.320746104041234</v>
+        <v>2.072983738557582</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5749470009442348</v>
+        <v>0.1545410167604189</v>
       </c>
       <c r="E20">
-        <v>6.347500670747365</v>
+        <v>1.523791482744969</v>
       </c>
       <c r="F20">
-        <v>12.07636684487079</v>
+        <v>3.507044232991149</v>
       </c>
       <c r="G20">
-        <v>0.0005685792658844659</v>
+        <v>0.002399048253912876</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.02712015386263111</v>
+        <v>0.721479222963314</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.553170401409375</v>
+        <v>1.325911536144474</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.17386120749461</v>
+        <v>2.25351256062396</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.7385984971425046</v>
+        <v>0.1661367854186437</v>
       </c>
       <c r="E21">
-        <v>7.710992693603913</v>
+        <v>1.715186332945791</v>
       </c>
       <c r="F21">
-        <v>15.1178268035477</v>
+        <v>3.785585288025459</v>
       </c>
       <c r="G21">
-        <v>0.0005233449502727369</v>
+        <v>0.00238514383639912</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.02899852211692888</v>
+        <v>0.6897961252717684</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.446302927015665</v>
+        <v>1.465826241411719</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.809526292138514</v>
+        <v>2.371942535799064</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.8894534872900124</v>
+        <v>0.1739568890251917</v>
       </c>
       <c r="E22">
-        <v>8.88507567233475</v>
+        <v>1.840570189604733</v>
       </c>
       <c r="F22">
-        <v>17.81671840346598</v>
+        <v>3.971707503006769</v>
       </c>
       <c r="G22">
-        <v>0.000486574549301204</v>
+        <v>0.002376349206692565</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.05322414590803604</v>
+        <v>0.6700359044085449</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.172312303037018</v>
+        <v>1.557858360646094</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.459185553103396</v>
+        <v>2.308692808068884</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.8024849169795232</v>
+        <v>0.1697603456803449</v>
       </c>
       <c r="E23">
-        <v>8.216568605485747</v>
+        <v>1.77362006977188</v>
       </c>
       <c r="F23">
-        <v>16.27250863994169</v>
+        <v>3.871985710926481</v>
       </c>
       <c r="G23">
-        <v>0.0005072747176088737</v>
+        <v>0.002381016464591697</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.03712681358545744</v>
+        <v>0.6804950534900804</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.764231384126902</v>
+        <v>1.508683033661214</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.307575420061426</v>
+        <v>2.070040410621118</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5726821877675832</v>
+        <v>0.1543554142920556</v>
       </c>
       <c r="E24">
-        <v>6.327824079212803</v>
+        <v>1.520667514011393</v>
       </c>
       <c r="F24">
-        <v>12.03337591306661</v>
+        <v>3.502557944180836</v>
       </c>
       <c r="G24">
-        <v>0.0005692535419736777</v>
+        <v>0.002399280496231054</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.02732913783179391</v>
+        <v>0.7220129032725895</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.539934599663013</v>
+        <v>1.323634201050254</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.222790976281431</v>
+        <v>1.814445085922273</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4069303886974609</v>
+        <v>0.1387071309127492</v>
       </c>
       <c r="E25">
-        <v>4.810017756726694</v>
+        <v>1.248769112256042</v>
       </c>
       <c r="F25">
-        <v>8.810776639523795</v>
+        <v>3.120447710381882</v>
       </c>
       <c r="G25">
-        <v>0.0006233784638796073</v>
+        <v>0.002420256053532826</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.06686870058117833</v>
+        <v>0.7707967524908899</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.493795969901896</v>
+        <v>1.126357193063086</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_253/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_253/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.627703740713571</v>
+        <v>3.483533629579085</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1279418244843811</v>
+        <v>0.3133493002229102</v>
       </c>
       <c r="E2">
-        <v>1.049007991950532</v>
+        <v>3.865440670216202</v>
       </c>
       <c r="F2">
-        <v>2.851904209353165</v>
+        <v>6.913431800469851</v>
       </c>
       <c r="G2">
-        <v>0.002436819216202656</v>
+        <v>0.000659562920153245</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8100945568519404</v>
+        <v>0.1180604551681022</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9828555794891258</v>
+        <v>2.821674521316027</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.502000301002283</v>
+        <v>3.00325721941374</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1210811433409731</v>
+        <v>0.2594644606388528</v>
       </c>
       <c r="E3">
-        <v>0.9137212164588675</v>
+        <v>3.280500619470871</v>
       </c>
       <c r="F3">
-        <v>2.677280718396645</v>
+        <v>5.788121985420958</v>
       </c>
       <c r="G3">
-        <v>0.002448753308349282</v>
+        <v>0.0006832309107349425</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8388043192501051</v>
+        <v>0.1619293071238008</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8865792465441871</v>
+        <v>2.399317927725264</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.425224270507726</v>
+        <v>2.715294831638857</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1170715228459045</v>
+        <v>0.2295476636787726</v>
       </c>
       <c r="E4">
-        <v>0.830645632023419</v>
+        <v>2.938850244638928</v>
       </c>
       <c r="F4">
-        <v>2.573502035141217</v>
+        <v>5.150656331231829</v>
       </c>
       <c r="G4">
-        <v>0.002456434227656734</v>
+        <v>0.0006976113616148575</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8574469461567213</v>
+        <v>0.1924563946141777</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8279107672790644</v>
+        <v>2.150928698080691</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.394038266786822</v>
+        <v>2.599320199750593</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1154869157118981</v>
+        <v>0.2179875650484462</v>
       </c>
       <c r="E5">
-        <v>0.7967821351280406</v>
+        <v>2.802987194283787</v>
       </c>
       <c r="F5">
-        <v>2.532049272878936</v>
+        <v>4.901541541310877</v>
       </c>
       <c r="G5">
-        <v>0.002459653617842334</v>
+        <v>0.0007034625503248327</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8652976201404297</v>
+        <v>0.2056931935643576</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.804110248128552</v>
+        <v>2.051865360801429</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.388865909464585</v>
+        <v>2.580136255858406</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1152267251940629</v>
+        <v>0.2161020674988521</v>
       </c>
       <c r="E6">
-        <v>0.7911583445752797</v>
+        <v>2.780604840124084</v>
       </c>
       <c r="F6">
-        <v>2.525215892337172</v>
+        <v>4.860750968918126</v>
       </c>
       <c r="G6">
-        <v>0.002460193606535347</v>
+        <v>0.0007044343157978527</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8666164950110113</v>
+        <v>0.2079365822840344</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8001645406273781</v>
+        <v>2.035531504126141</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.424803278478805</v>
+        <v>2.713725631604348</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1170499546568635</v>
+        <v>0.2293893932482973</v>
       </c>
       <c r="E7">
-        <v>0.8301889850440887</v>
+        <v>2.937005515775979</v>
       </c>
       <c r="F7">
-        <v>2.572939631767554</v>
+        <v>5.147256723584036</v>
       </c>
       <c r="G7">
-        <v>0.002456477283086463</v>
+        <v>0.0006976902756600529</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.85755179802565</v>
+        <v>0.1926318089907095</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8275893565240438</v>
+        <v>2.14958464363562</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.584275962571951</v>
+        <v>3.316245019348571</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1255331414052421</v>
+        <v>0.2939977315053142</v>
       </c>
       <c r="E8">
-        <v>1.002358481034975</v>
+        <v>3.659398999069936</v>
       </c>
       <c r="F8">
-        <v>2.790963191602515</v>
+        <v>6.512402304885143</v>
       </c>
       <c r="G8">
-        <v>0.002440861061126398</v>
+        <v>0.000667775291585034</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8197821673752967</v>
+        <v>0.1323691486241145</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.949564126541901</v>
+        <v>2.67336836570982</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.90030962925249</v>
+        <v>4.575949183311081</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1438557688730526</v>
+        <v>0.4567691901353612</v>
       </c>
       <c r="E9">
-        <v>1.340266070135186</v>
+        <v>5.284278730400047</v>
       </c>
       <c r="F9">
-        <v>3.247089622837478</v>
+        <v>9.796568824948508</v>
       </c>
       <c r="G9">
-        <v>0.002413018072622909</v>
+        <v>0.0006059895286205652</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7538349340809614</v>
+        <v>0.04927691336475881</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.192521911556071</v>
+        <v>3.825652914366117</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.134666396050761</v>
+        <v>5.601464639861604</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1584567956451792</v>
+        <v>0.6249381902086384</v>
       </c>
       <c r="E10">
-        <v>1.589231442490103</v>
+        <v>6.77575059757325</v>
       </c>
       <c r="F10">
-        <v>3.601478933168721</v>
+        <v>13.01881948071764</v>
       </c>
       <c r="G10">
-        <v>0.002394223940575129</v>
+        <v>0.0005540608891256096</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7104261972580037</v>
+        <v>0.02431481713979267</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.37366559431797</v>
+        <v>4.838915356586256</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.241788925065975</v>
+        <v>6.115109664646866</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1653715399536964</v>
+        <v>0.7261016555517017</v>
       </c>
       <c r="E11">
-        <v>1.702768003713715</v>
+        <v>7.610514745521158</v>
       </c>
       <c r="F11">
-        <v>3.767302172884797</v>
+        <v>14.8898920501619</v>
       </c>
       <c r="G11">
-        <v>0.002386027703980198</v>
+        <v>0.0005265824304671994</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6917941869336053</v>
+        <v>0.02782975907059537</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.456726261016058</v>
+        <v>5.382213656995191</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.282429864075141</v>
+        <v>6.321442922794859</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1680312800319257</v>
+        <v>0.7709518203168386</v>
       </c>
       <c r="E12">
-        <v>1.745811843398258</v>
+        <v>7.968670482001073</v>
       </c>
       <c r="F12">
-        <v>3.8307928703789</v>
+        <v>15.70477062561605</v>
       </c>
       <c r="G12">
-        <v>0.002382974229842121</v>
+        <v>0.0005151089441402365</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6849008769120006</v>
+        <v>0.03268214978242767</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.488280196668484</v>
+        <v>5.609305703070049</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.273673694098648</v>
+        <v>6.276332261343327</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.167456588000789</v>
+        <v>0.7609115402474629</v>
       </c>
       <c r="E13">
-        <v>1.736539200627902</v>
+        <v>7.889075075580308</v>
       </c>
       <c r="F13">
-        <v>3.817087455740705</v>
+        <v>15.52310768502309</v>
       </c>
       <c r="G13">
-        <v>0.002383629623411938</v>
+        <v>0.0005176428467145522</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6863782283812094</v>
+        <v>0.03144051246533408</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.48147991483836</v>
+        <v>5.55916573061279</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.245130943514368</v>
+        <v>6.131798118831853</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1655895190452554</v>
+        <v>0.7296300866720458</v>
       </c>
       <c r="E14">
-        <v>1.706308187470739</v>
+        <v>7.638939142077362</v>
       </c>
       <c r="F14">
-        <v>3.772511421430465</v>
+        <v>14.95431800042508</v>
       </c>
       <c r="G14">
-        <v>0.002385775488753949</v>
+        <v>0.0005256650843405986</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6912238077329027</v>
+        <v>0.02814488296179363</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.459320168879856</v>
+        <v>5.400373627536339</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.227657647724754</v>
+        <v>6.045049525832496</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1644513233167686</v>
+        <v>0.7114687374703976</v>
       </c>
       <c r="E15">
-        <v>1.687797624088802</v>
+        <v>7.492165767514024</v>
       </c>
       <c r="F15">
-        <v>3.745299121090198</v>
+        <v>14.62212089225994</v>
       </c>
       <c r="G15">
-        <v>0.002387096422454382</v>
+        <v>0.0005304146330677665</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6942130495798438</v>
+        <v>0.02665081916150847</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.445759979979414</v>
+        <v>5.306353225403711</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.127676188747103</v>
+        <v>5.569172797172087</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1580105628023034</v>
+        <v>0.6190137307988266</v>
       </c>
       <c r="E16">
-        <v>1.581818026203479</v>
+        <v>6.725584616129652</v>
       </c>
       <c r="F16">
-        <v>3.590737648826519</v>
+        <v>12.90776667907818</v>
       </c>
       <c r="G16">
-        <v>0.002394766647112012</v>
+        <v>0.000555746343442364</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7116664389386953</v>
+        <v>0.024474490690368</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.368251131946465</v>
+        <v>4.805677637227632</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.066473612632137</v>
+        <v>5.291640389365966</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1541306512948779</v>
+        <v>0.5699512562933364</v>
       </c>
       <c r="E17">
-        <v>1.516881636278981</v>
+        <v>6.304064816859523</v>
       </c>
       <c r="F17">
-        <v>3.497123811948228</v>
+        <v>11.98150248998732</v>
       </c>
       <c r="G17">
-        <v>0.002399562188699896</v>
+        <v>0.000570068584013524</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7226604119843412</v>
+        <v>0.02759108336032057</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.320874636389192</v>
+        <v>4.523940340523097</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.031319597581728</v>
+        <v>5.136024581945094</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1519245656822648</v>
+        <v>0.5438001298983011</v>
       </c>
       <c r="E18">
-        <v>1.479557787579211</v>
+        <v>6.074672710268942</v>
       </c>
       <c r="F18">
-        <v>3.443711391791339</v>
+        <v>11.48282866474813</v>
       </c>
       <c r="G18">
-        <v>0.002402353745505787</v>
+        <v>0.0005779867806696475</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7290886710821436</v>
+        <v>0.03066769121227608</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.293686434685981</v>
+        <v>4.368843671941988</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.019425245110881</v>
+        <v>5.083936008203352</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1511819470414082</v>
+        <v>0.5352504143270949</v>
       </c>
       <c r="E19">
-        <v>1.466924727014657</v>
+        <v>5.998917165130479</v>
       </c>
       <c r="F19">
-        <v>3.42570000077049</v>
+        <v>11.31902094101895</v>
       </c>
       <c r="G19">
-        <v>0.002403304652365929</v>
+        <v>0.000580621578340379</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7312831139950546</v>
+        <v>0.03190528287882799</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.284491358169987</v>
+        <v>4.317360469252264</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.072983738557582</v>
+        <v>5.32074610404112</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1545410167604189</v>
+        <v>0.5749470009440074</v>
       </c>
       <c r="E20">
-        <v>1.523791482744969</v>
+        <v>6.347500670747422</v>
       </c>
       <c r="F20">
-        <v>3.507044232991149</v>
+        <v>12.07636684487079</v>
       </c>
       <c r="G20">
-        <v>0.002399048253912876</v>
+        <v>0.0005685792661011225</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.721479222963314</v>
+        <v>0.02712015386262934</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.325911536144474</v>
+        <v>4.553170401409375</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.25351256062396</v>
+        <v>6.173861207494724</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1661367854186437</v>
+        <v>0.7385984971425614</v>
       </c>
       <c r="E21">
-        <v>1.715186332945791</v>
+        <v>7.710992693603913</v>
       </c>
       <c r="F21">
-        <v>3.785585288025459</v>
+        <v>15.11782680354747</v>
       </c>
       <c r="G21">
-        <v>0.00238514383639912</v>
+        <v>0.0005233449502791069</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6897961252717684</v>
+        <v>0.02899852211692888</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.465826241411719</v>
+        <v>5.446302927015665</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.371942535799064</v>
+        <v>6.809526292138401</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1739568890251917</v>
+        <v>0.8894534872898703</v>
       </c>
       <c r="E22">
-        <v>1.840570189604733</v>
+        <v>8.885075672334779</v>
       </c>
       <c r="F22">
-        <v>3.971707503006769</v>
+        <v>17.81671840346593</v>
       </c>
       <c r="G22">
-        <v>0.002376349206692565</v>
+        <v>0.0004865745493037624</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6700359044085449</v>
+        <v>0.05322414590803426</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.557858360646094</v>
+        <v>6.172312303037074</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.308692808068884</v>
+        <v>6.459185553103225</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1697603456803449</v>
+        <v>0.8024849169795516</v>
       </c>
       <c r="E23">
-        <v>1.77362006977188</v>
+        <v>8.216568605485548</v>
       </c>
       <c r="F23">
-        <v>3.871985710926481</v>
+        <v>16.27250863994152</v>
       </c>
       <c r="G23">
-        <v>0.002381016464591697</v>
+        <v>0.0005072747175580384</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6804950534900804</v>
+        <v>0.03712681358545566</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.508683033661214</v>
+        <v>5.764231384126845</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.070040410621118</v>
+        <v>5.307575420061426</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1543554142920556</v>
+        <v>0.5726821877677821</v>
       </c>
       <c r="E24">
-        <v>1.520667514011393</v>
+        <v>6.327824079212718</v>
       </c>
       <c r="F24">
-        <v>3.502557944180836</v>
+        <v>12.03337591306658</v>
       </c>
       <c r="G24">
-        <v>0.002399280496231054</v>
+        <v>0.0005692535419730977</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7220129032725895</v>
+        <v>0.02732913783179214</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.323634201050254</v>
+        <v>4.539934599662843</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.814445085922273</v>
+        <v>4.222790976281715</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1387071309127492</v>
+        <v>0.4069303886976456</v>
       </c>
       <c r="E25">
-        <v>1.248769112256042</v>
+        <v>4.810017756726666</v>
       </c>
       <c r="F25">
-        <v>3.120447710381882</v>
+        <v>8.810776639523851</v>
       </c>
       <c r="G25">
-        <v>0.002420256053532826</v>
+        <v>0.0006233784637788471</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7707967524908899</v>
+        <v>0.06686870058119254</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.126357193063086</v>
+        <v>3.49379596990201</v>
       </c>
       <c r="M25">
         <v>0</v>
